--- a/grupos/6APM - Estadisticos 20202.xlsx
+++ b/grupos/6APM - Estadisticos 20202.xlsx
@@ -1977,7 +1977,7 @@
         <v>7</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T18">
         <v>6</v>
@@ -1995,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2054,7 +2054,7 @@
         <v>7</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T19">
         <v>6</v>
@@ -2072,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">

--- a/grupos/6APM - Estadisticos 20202.xlsx
+++ b/grupos/6APM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
   <si>
     <t>Materia</t>
   </si>
@@ -149,22 +149,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Rodriguez Roman Marisol</t>
+  </si>
+  <si>
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
-    <t>Ortega Valle Manuel</t>
+    <t>Jiménez Nieto Enrique</t>
+  </si>
+  <si>
+    <t>Herrera Serrano Mayra Iliana</t>
   </si>
   <si>
     <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
-    <t>Rodriguez Roman Marisol</t>
-  </si>
-  <si>
-    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>NC</t>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -2602,19 +2602,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>45.45</v>
+        <v>90.91</v>
       </c>
       <c r="G2">
-        <v>54.55</v>
+        <v>9.09</v>
       </c>
       <c r="H2">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
@@ -2634,19 +2634,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>27.27</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -2666,19 +2666,19 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>27.27</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -2698,19 +2698,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>86.36</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>13.64</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -2730,19 +2730,19 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3235,7 +3235,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3265,283 +3265,53 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920363</v>
+        <v>18330051920371</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920363</v>
+        <v>18330051920370</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920457</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920457</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920368</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920368</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920357</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920355</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920364</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920366</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920367</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920376</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
